--- a/data/trans_dic/P16B05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,48%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>95,1; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>89,08; 98,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>98,59; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>92,08; 99,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,28</t>
+          <t>92,27; 98,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>98,92; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,26</t>
+          <t>94,19; 99,4</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,25%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>59,79; 95,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>86,16; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>85,88; 98,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>83,01; 98,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>97,69; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>94,8; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>81,75; 96,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>95,34; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>93,9; 98,95</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,31%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>66,02; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>70,59; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>69,31; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>84,38; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>77,38; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>80,67; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,28%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>85,68; 97,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>95,52; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>89,51; 98,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>90,59; 97,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>97,34; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>95,69; 99,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>90,69; 96,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>97,84; 99,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>95,22; 98,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89,08; 98,12</t>
+          <t>89,62; 98,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +711,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,08; 99,21</t>
+          <t>92,51; 99,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,27; 98,64</t>
+          <t>91,19; 98,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>94,19; 99,4</t>
+          <t>93,81; 99,39</t>
         </is>
       </c>
     </row>
@@ -795,22 +796,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,79; 95,53</t>
+          <t>59,53; 95,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,16; 100,0</t>
+          <t>88,77; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,88; 98,38</t>
+          <t>83,92; 98,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,01; 98,53</t>
+          <t>81,7; 98,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,22 +821,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>94,8; 100,0</t>
+          <t>95,99; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,75; 96,27</t>
+          <t>80,92; 95,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,34; 100,0</t>
+          <t>96,01; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,9; 98,95</t>
+          <t>93,77; 98,95</t>
         </is>
       </c>
     </row>
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,02; 100,0</t>
+          <t>73,45; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -915,7 +916,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>70,59; 100,0</t>
+          <t>71,44; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,7 +926,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>69,31; 100,0</t>
+          <t>67,72; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,17 +936,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>84,38; 100,0</t>
+          <t>84,18; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>77,38; 100,0</t>
+          <t>79,42; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80,67; 100,0</t>
+          <t>82,27; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,68; 97,76</t>
+          <t>84,04; 97,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,52; 100,0</t>
+          <t>93,79; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,51; 98,21</t>
+          <t>90,04; 98,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,59; 97,75</t>
+          <t>90,48; 97,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,34; 100,0</t>
+          <t>97,35; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,69; 99,28</t>
+          <t>95,66; 99,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,69; 96,76</t>
+          <t>90,9; 96,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>97,84; 99,75</t>
+          <t>97,71; 99,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95,22; 98,65</t>
+          <t>95,07; 98,65</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos tranquilizantes fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>42783</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>50760</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>38073</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>100651</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>144813</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>122203</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>143435</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>195573</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>160277</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40966; 42783</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48504; 50760</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>36208; 38073</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>95351; 104321</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>142771; 144813</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>116889; 125355</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>136040; 147015</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>193465; 195573</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>154245; 163425</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19702</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>47545</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>59768</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>55803</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>89245</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>126907</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>75505</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>136790</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>186675</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14436; 23161</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43114; 48569</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>53657; 62870</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>48537; 58526</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>87185; 89245</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>122887; 128018</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>67697; 80128</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>132318; 137814</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>179988; 189937</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12704</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13590</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13938</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13398</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14670</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13382</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26102</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28260</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27320</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9943; 13538</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11269; 13590</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10705; 14985</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11591; 13398</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11223; 16574</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11441; 13382</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22674; 26936</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23956; 30164</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23336; 28367</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>75190</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>111894</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>111780</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>169851</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>248728</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>262492</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>245042</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>360623</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>374272</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>67712; 78646</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>105908; 112918</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>105338; 114931</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>162135; 174510</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>243981; 250632</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>256135; 265792</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>236145; 251452</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>355239; 362610</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>365768; 379567</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>